--- a/biology/Zoologie/Hérisson_daourien/Hérisson_daourien.xlsx
+++ b/biology/Zoologie/Hérisson_daourien/Hérisson_daourien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9risson_daourien</t>
+          <t>Hérisson_daourien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesechinus dauuricus
-Le Hérisson daourien[1], Mesechinus dauuricus, est une espèce de petits mammifères insectivores de la famille des Erinaceidae. Ce hérisson fait partie du genre des hérissons des steppes (Mesechinus). On le trouve notamment dans la réserve naturelle de Daourie.
+Le Hérisson daourien, Mesechinus dauuricus, est une espèce de petits mammifères insectivores de la famille des Erinaceidae. Ce hérisson fait partie du genre des hérissons des steppes (Mesechinus). On le trouve notamment dans la réserve naturelle de Daourie.
 </t>
         </is>
       </c>
